--- a/zad3/Sprawozdanie/data.xlsx
+++ b/zad3/Sprawozdanie/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>rozmiar</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mone Carlo</t>
   </si>
 </sst>
 </file>
@@ -297,8 +300,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.8499007450103446E-2"/>
-          <c:y val="4.398920611060865E-2"/>
+          <c:x val="5.8499007450103467E-2"/>
+          <c:y val="4.3989206110608657E-2"/>
           <c:w val="0.89401146938914"/>
           <c:h val="0.84712867691676064"/>
         </c:manualLayout>
@@ -440,11 +443,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="170878080"/>
-        <c:axId val="170879616"/>
+        <c:axId val="160530432"/>
+        <c:axId val="160531968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170878080"/>
+        <c:axId val="160530432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,14 +455,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170879616"/>
+        <c:crossAx val="160531968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170879616"/>
+        <c:axId val="160531968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +476,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="170878080"/>
+        <c:crossAx val="160530432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -486,8 +489,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.9473355294516421E-2"/>
           <c:y val="4.4804825903039511E-2"/>
-          <c:w val="0.23333744513547644"/>
-          <c:h val="7.0913407723763394E-2"/>
+          <c:w val="0.23333744513547647"/>
+          <c:h val="7.0913407723763408E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -495,7 +498,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -513,8 +516,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7079763204799677E-2"/>
-          <c:y val="3.6920937336781021E-2"/>
+          <c:x val="9.0535277902705491E-2"/>
+          <c:y val="2.8467386823377596E-2"/>
           <c:w val="0.88653847096467442"/>
           <c:h val="0.80932650718374288"/>
         </c:manualLayout>
@@ -1103,13 +1106,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="119933568"/>
-        <c:axId val="119984512"/>
+        <c:axId val="160644480"/>
+        <c:axId val="160658560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119933568"/>
+        <c:axId val="160644480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,14 +1119,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119984512"/>
-        <c:crossesAt val="5.0000000000000012E-4"/>
+        <c:crossAx val="160658560"/>
+        <c:crossesAt val="5.0000000000000023E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119984512"/>
+        <c:axId val="160658560"/>
         <c:scaling>
           <c:logBase val="5"/>
           <c:orientation val="minMax"/>
@@ -1134,7 +1136,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119933568"/>
+        <c:crossAx val="160644480"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,6 +1151,154 @@
           <c:y val="0.90677730685412095"/>
           <c:w val="0.96407040186406434"/>
           <c:h val="7.6315592119072143E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10567175348595617"/>
+          <c:y val="0.1023202466619153"/>
+          <c:w val="0.87307195937145976"/>
+          <c:h val="0.6307913566149892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Monte-Carlo</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$50:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$50:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60006000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59981600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59993269999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="46826240"/>
+        <c:axId val="46827776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46826240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46827776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46827776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.65000000000000013"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46826240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11346814985432686"/>
+          <c:y val="0.22862682459276809"/>
+          <c:w val="0.22714179087965336"/>
+          <c:h val="8.3806735762072995E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1196,16 +1346,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>364435</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7040</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>398052</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>786849</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>293790</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:rowOff>54081</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1219,6 +1369,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256441</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58614</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1512,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Z50"/>
+  <dimension ref="A2:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="F45" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3309,9 +3489,68 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickTop="1"/>
-    <row r="50" spans="22:22">
+    <row r="49" spans="5:22">
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="5:22">
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
       <c r="V50" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="5:22">
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="5:22">
+      <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="5:22">
+      <c r="E53">
+        <v>10000</v>
+      </c>
+      <c r="F53">
+        <v>0.59570000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="5:22">
+      <c r="E54">
+        <v>100000</v>
+      </c>
+      <c r="F54">
+        <v>0.60006000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="5:22">
+      <c r="E55">
+        <v>1000000</v>
+      </c>
+      <c r="F55">
+        <v>0.59981600000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="5:22">
+      <c r="E56">
+        <v>10000000</v>
+      </c>
+      <c r="F56">
+        <v>0.59993269999999999</v>
       </c>
     </row>
   </sheetData>

--- a/zad3/Sprawozdanie/data.xlsx
+++ b/zad3/Sprawozdanie/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
   <si>
     <t>rozmiar</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>Mone Carlo</t>
+  </si>
+  <si>
+    <t>siedel</t>
+  </si>
+  <si>
+    <t>Jacobie</t>
+  </si>
+  <si>
+    <t>iteracje</t>
+  </si>
+  <si>
+    <t>time siedel</t>
+  </si>
+  <si>
+    <t>time jacobie</t>
   </si>
 </sst>
 </file>
@@ -263,7 +278,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
@@ -274,6 +289,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -300,8 +316,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.8499007450103467E-2"/>
-          <c:y val="4.3989206110608657E-2"/>
+          <c:x val="5.8499007450103502E-2"/>
+          <c:y val="4.3989206110608685E-2"/>
           <c:w val="0.89401146938914"/>
           <c:h val="0.84712867691676064"/>
         </c:manualLayout>
@@ -443,11 +459,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="160530432"/>
-        <c:axId val="160531968"/>
+        <c:axId val="157917184"/>
+        <c:axId val="157918720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160530432"/>
+        <c:axId val="157917184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,14 +471,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160531968"/>
+        <c:crossAx val="157918720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160531968"/>
+        <c:axId val="157918720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +492,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="160530432"/>
+        <c:crossAx val="157917184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -489,8 +505,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.9473355294516421E-2"/>
           <c:y val="4.4804825903039511E-2"/>
-          <c:w val="0.23333744513547647"/>
-          <c:h val="7.0913407723763408E-2"/>
+          <c:w val="0.23333744513547663"/>
+          <c:h val="7.091340772376345E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -498,7 +514,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1107,11 +1123,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="160644480"/>
-        <c:axId val="160658560"/>
+        <c:axId val="158024448"/>
+        <c:axId val="158025984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160644480"/>
+        <c:axId val="158024448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,14 +1135,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160658560"/>
-        <c:crossesAt val="5.0000000000000023E-4"/>
+        <c:crossAx val="158025984"/>
+        <c:crossesAt val="5.0000000000000034E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160658560"/>
+        <c:axId val="158025984"/>
         <c:scaling>
           <c:logBase val="5"/>
           <c:orientation val="minMax"/>
@@ -1136,7 +1152,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160644480"/>
+        <c:crossAx val="158024448"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1158,7 +1174,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1169,7 +1185,14 @@
   <c:lang val="pl-PL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36050507251894698"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -1177,10 +1200,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10567175348595617"/>
-          <c:y val="0.1023202466619153"/>
-          <c:w val="0.87307195937145976"/>
-          <c:h val="0.6307913566149892"/>
+          <c:x val="9.7778918521980646E-2"/>
+          <c:y val="6.0609013202718422E-2"/>
+          <c:w val="0.89766364792491049"/>
+          <c:h val="0.80227087194724289"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1192,7 +1215,8 @@
             <c:v>Monte-Carlo</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1256,35 +1280,37 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="46826240"/>
-        <c:axId val="46827776"/>
+        <c:axId val="158049792"/>
+        <c:axId val="158051328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46826240"/>
+        <c:axId val="158049792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46827776"/>
+        <c:crossAx val="158051328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46827776"/>
+        <c:axId val="158051328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.65000000000000013"/>
+          <c:max val="0.65000000000000058"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46826240"/>
+        <c:crossAx val="158049792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,10 +1321,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11346814985432686"/>
-          <c:y val="0.22862682459276809"/>
-          <c:w val="0.22714179087965336"/>
-          <c:h val="8.3806735762072995E-2"/>
+          <c:x val="0.1006293932145267"/>
+          <c:y val="0.11739686870157641"/>
+          <c:w val="0.18165511584142971"/>
+          <c:h val="8.3806735762073065E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1306,7 +1332,602 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12332948587342549"/>
+          <c:y val="5.1431602046146295E-2"/>
+          <c:w val="0.85998815818721031"/>
+          <c:h val="0.89713679590770701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Seidel</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$71:$G$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$71:$J$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.252487785609112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4395447688928993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0645021366699812E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.695336521257973E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0347759684103952E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8958850401282774E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6337599595981374E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3906211172052281E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0000000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0000000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0000000000000001E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Jacobie</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$71:$G$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$71:$K$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.27640849260094102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.414547031664398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.853285138768602E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8696974074300448E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9019488854850053E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1952978612020999E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9099588540738566E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2548550077393656E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5871298133023402E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2928991210969798E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9960036108132044E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0000000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0000000000000001E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="158289920"/>
+        <c:axId val="158291456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158289920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="158291456"/>
+        <c:crossesAt val="1.0000000000000026E-15"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="158291456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="158289920"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6030376501017527"/>
+          <c:y val="8.7329986314281294E-2"/>
+          <c:w val="0.38030775162267605"/>
+          <c:h val="9.3416702412946834E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6462841168847782E-2"/>
+          <c:y val="3.4048859407374246E-2"/>
+          <c:w val="0.91211054551924542"/>
+          <c:h val="0.82035519436051063"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Seidel</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$71:$G$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$71:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.571</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Jacobie</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$71:$G$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$71:$M$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4870000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="158320128"/>
+        <c:axId val="158321664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158320128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="158321664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="158321664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="158320128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13134404567097702"/>
+          <c:y val="5.5563640095817088E-2"/>
+          <c:w val="0.31767970731484396"/>
+          <c:h val="7.4877074320135795E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1377,13 +1998,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>256441</xdr:colOff>
+      <xdr:colOff>272769</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>58614</xdr:colOff>
+      <xdr:colOff>74942</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
     </xdr:to>
@@ -1399,6 +2020,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576387</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>179556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1512322</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>63600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241123</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>151290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411135</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>21905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1692,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Z56"/>
+  <dimension ref="A2:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F45" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="H87" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1706,8 +2387,8 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
@@ -3551,6 +4232,437 @@
       </c>
       <c r="F56">
         <v>0.59993269999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13">
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>0.72755923181752302</v>
+      </c>
+    </row>
+    <row r="70" spans="5:13">
+      <c r="G70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" t="s">
+        <v>42</v>
+      </c>
+      <c r="L70" t="s">
+        <v>44</v>
+      </c>
+      <c r="M70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="5:13">
+      <c r="E71">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F71">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>0.47507144620841102</v>
+      </c>
+      <c r="I71">
+        <v>0.451150739216582</v>
+      </c>
+      <c r="J71">
+        <f>SUM(E71-H71)</f>
+        <v>0.252487785609112</v>
+      </c>
+      <c r="K71">
+        <f>SUM(F71-I71)</f>
+        <v>0.27640849260094102</v>
+      </c>
+      <c r="L71">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="M71">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="5:13">
+      <c r="E72">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F72">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>0.69316378412859403</v>
+      </c>
+      <c r="I72">
+        <v>0.65341376150087904</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J78" si="0">SUM(E72-H72)</f>
+        <v>3.4395447688928993E-2</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ref="K72:K81" si="1">SUM(F72-I72)</f>
+        <v>7.414547031664398E-2</v>
+      </c>
+      <c r="L72">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="M72">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="5:13">
+      <c r="E73">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F73">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>0.72049472968085304</v>
+      </c>
+      <c r="I73">
+        <v>0.699026380429837</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="0"/>
+        <v>7.0645021366699812E-3</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>2.853285138768602E-2</v>
+      </c>
+      <c r="L73">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M73">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13">
+      <c r="E74">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F74">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G74">
+        <v>20</v>
+      </c>
+      <c r="H74">
+        <v>0.72586389529626505</v>
+      </c>
+      <c r="I74">
+        <v>0.71768953441009298</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="0"/>
+        <v>1.695336521257973E-3</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="1"/>
+        <v>9.8696974074300448E-3</v>
+      </c>
+      <c r="L74">
+        <v>0.439</v>
+      </c>
+      <c r="M74">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13">
+      <c r="E75">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F75">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G75">
+        <v>30</v>
+      </c>
+      <c r="H75">
+        <v>0.72745575422068198</v>
+      </c>
+      <c r="I75">
+        <v>0.72565728293203802</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="0"/>
+        <v>1.0347759684103952E-4</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="1"/>
+        <v>1.9019488854850053E-3</v>
+      </c>
+      <c r="L75">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M75">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13">
+      <c r="E76">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F76">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G76">
+        <v>50</v>
+      </c>
+      <c r="H76">
+        <v>0.72755884222901901</v>
+      </c>
+      <c r="I76">
+        <v>0.727477278838911</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="0"/>
+        <v>3.8958850401282774E-7</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="1"/>
+        <v>8.1952978612020999E-5</v>
+      </c>
+      <c r="L76">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M76">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="5:13">
+      <c r="E77">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F77">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G77">
+        <v>75</v>
+      </c>
+      <c r="H77">
+        <v>0.72755923145414703</v>
+      </c>
+      <c r="I77">
+        <v>0.72755732185866895</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="0"/>
+        <v>3.6337599595981374E-10</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="1"/>
+        <v>1.9099588540738566E-6</v>
+      </c>
+      <c r="L77">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="M77">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="5:13">
+      <c r="E78">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F78">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>0.72755923181718396</v>
+      </c>
+      <c r="I78">
+        <v>0.72755919926897294</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="0"/>
+        <v>3.3906211172052281E-13</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="1"/>
+        <v>3.2548550077393656E-8</v>
+      </c>
+      <c r="L78">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M78">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13">
+      <c r="E79">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F79">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G79">
+        <v>125</v>
+      </c>
+      <c r="H79">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="I79">
+        <v>0.72755923105881004</v>
+      </c>
+      <c r="J79">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="1"/>
+        <v>7.5871298133023402E-10</v>
+      </c>
+      <c r="L79">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="M79">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="5:13">
+      <c r="E80">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F80">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G80">
+        <v>150</v>
+      </c>
+      <c r="H80">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="I80">
+        <v>0.72755923180459403</v>
+      </c>
+      <c r="J80">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="1"/>
+        <v>1.2928991210969798E-11</v>
+      </c>
+      <c r="L80">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="M80">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13">
+      <c r="E81">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F81">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G81">
+        <v>200</v>
+      </c>
+      <c r="H81">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="I81">
+        <v>0.72755923181751803</v>
+      </c>
+      <c r="J81">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="1"/>
+        <v>4.9960036108132044E-15</v>
+      </c>
+      <c r="L81">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="M81">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13">
+      <c r="E82">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="F82">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="G82">
+        <v>250</v>
+      </c>
+      <c r="H82">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="I82">
+        <v>0.72755923181752302</v>
+      </c>
+      <c r="J82">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="K82">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="L82" s="10">
+        <v>1.35</v>
+      </c>
+      <c r="M82">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13">
+      <c r="G83">
+        <v>300</v>
+      </c>
+      <c r="J83">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="K83">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="L83">
+        <v>1.571</v>
+      </c>
+      <c r="M83">
+        <v>1.0580000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13">
+      <c r="G84">
+        <v>500</v>
+      </c>
+      <c r="L84">
+        <v>2.375</v>
+      </c>
+      <c r="M84">
+        <v>1.6439999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13">
+      <c r="G85">
+        <v>750</v>
+      </c>
+      <c r="L85" s="10">
+        <v>3.33</v>
+      </c>
+      <c r="M85">
+        <v>2.4870000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/zad3/Sprawozdanie/data.xlsx
+++ b/zad3/Sprawozdanie/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>rozmiar</t>
   </si>
@@ -155,6 +155,48 @@
   <si>
     <t>time jacobie</t>
   </si>
+  <si>
+    <t>needed iterations: 199</t>
+  </si>
+  <si>
+    <t>Time: 0.717</t>
+  </si>
+  <si>
+    <t>Counting GaussSeidl...</t>
+  </si>
+  <si>
+    <t>needed iterations: 114</t>
+  </si>
+  <si>
+    <t>Time: 0.477</t>
+  </si>
+  <si>
+    <t>Jacobie New Time</t>
+  </si>
+  <si>
+    <t>Seidel Time</t>
+  </si>
+  <si>
+    <t>Seidel New Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracje </t>
+  </si>
+  <si>
+    <t>jacobie new</t>
+  </si>
+  <si>
+    <t>Seidel</t>
+  </si>
+  <si>
+    <t>Seidel New</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>seidl</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -269,6 +311,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -278,7 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
@@ -290,6 +341,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -316,8 +371,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.8499007450103502E-2"/>
-          <c:y val="4.3989206110608685E-2"/>
+          <c:x val="5.8499007450103509E-2"/>
+          <c:y val="4.3989206110608692E-2"/>
           <c:w val="0.89401146938914"/>
           <c:h val="0.84712867691676064"/>
         </c:manualLayout>
@@ -373,16 +428,16 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>312</c:v>
@@ -440,13 +495,13 @@
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>293</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>396</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>492</c:v>
@@ -459,11 +514,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="157917184"/>
-        <c:axId val="157918720"/>
+        <c:axId val="73217536"/>
+        <c:axId val="73219072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157917184"/>
+        <c:axId val="73217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,14 +526,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157918720"/>
+        <c:crossAx val="73219072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157918720"/>
+        <c:axId val="73219072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +547,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="157917184"/>
+        <c:crossAx val="73217536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -505,8 +560,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.9473355294516421E-2"/>
           <c:y val="4.4804825903039511E-2"/>
-          <c:w val="0.23333744513547663"/>
-          <c:h val="7.091340772376345E-2"/>
+          <c:w val="0.23333744513547669"/>
+          <c:h val="7.0913407723763464E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -514,7 +569,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -546,6 +601,16 @@
           <c:tx>
             <c:v>Eigen</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="66675"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="16"/>
+            <c:spPr>
+              <a:ln w="25400"/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$W$34:$W$45</c:f>
@@ -690,45 +755,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$34:$M$45</c:f>
+              <c:f>Sheet1!$R$55:$R$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.14799999999999999</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.22900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.69</c:v>
+                  <c:v>1.9530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.085000000000001</c:v>
+                  <c:v>10.374000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.516</c:v>
+                  <c:v>15.214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.84</c:v>
+                  <c:v>21.114999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.640999999999998</c:v>
+                  <c:v>28.363</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.326000000000001</c:v>
+                  <c:v>40.881999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.281999999999996</c:v>
+                  <c:v>50.832999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.727000000000004</c:v>
+                  <c:v>63.777000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>186.78899999999999</c:v>
+                  <c:v>173.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>504.89400000000001</c:v>
+                  <c:v>485.84500000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,45 +852,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$34:$P$45</c:f>
+              <c:f>Sheet1!$U$55:$U$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.7999999999999995E-2</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26500000000000001</c:v>
+                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5489999999999999</c:v>
+                  <c:v>3.2250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0409999999999999</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0270000000000001</c:v>
+                  <c:v>20.241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.993</c:v>
+                  <c:v>37.426000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.778</c:v>
+                  <c:v>49.622</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.472</c:v>
+                  <c:v>64.822000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.463000000000001</c:v>
+                  <c:v>77.484999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.698999999999998</c:v>
+                  <c:v>123.684</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.796000000000006</c:v>
+                  <c:v>288.91699999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>115.032</c:v>
+                  <c:v>701.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,6 +902,10 @@
           <c:tx>
             <c:v>Gauss Seidel</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="17"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$W$34:$W$45</c:f>
@@ -884,45 +953,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$34:$O$45</c:f>
+              <c:f>Sheet1!$W$55:$W$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.254</c:v>
+                  <c:v>0.371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93300000000000005</c:v>
+                  <c:v>1.214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9359999999999999</c:v>
+                  <c:v>6.3440000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.165</c:v>
+                  <c:v>8.0239999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7</c:v>
+                  <c:v>14.202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2439999999999998</c:v>
+                  <c:v>19.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3540000000000001</c:v>
+                  <c:v>21.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8879999999999999</c:v>
+                  <c:v>34.838999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.724</c:v>
+                  <c:v>54.213000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.988</c:v>
+                  <c:v>114.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.587000000000003</c:v>
+                  <c:v>341.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +1050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$34:$N$45</c:f>
+              <c:f>Sheet1!$S$55:$S$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -989,37 +1058,37 @@
                   <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40500000000000003</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.117</c:v>
+                  <c:v>0.78200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2529999999999999</c:v>
+                  <c:v>1.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6930000000000001</c:v>
+                  <c:v>2.0569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7749999999999999</c:v>
+                  <c:v>2.028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2829999999999999</c:v>
+                  <c:v>2.4140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3810000000000002</c:v>
+                  <c:v>4.0860000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.696999999999999</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.587</c:v>
+                  <c:v>30.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,11 +1192,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="158024448"/>
-        <c:axId val="158025984"/>
+        <c:axId val="73267456"/>
+        <c:axId val="73146368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158024448"/>
+        <c:axId val="73267456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,14 +1204,24 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158025984"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73146368"/>
         <c:crossesAt val="5.0000000000000034E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158025984"/>
+        <c:axId val="73146368"/>
         <c:scaling>
           <c:logBase val="5"/>
           <c:orientation val="minMax"/>
@@ -1152,29 +1231,55 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158024448"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73267456"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.0592939949090122E-2"/>
-          <c:y val="0.90677730685412095"/>
-          <c:w val="0.96407040186406434"/>
-          <c:h val="7.6315592119072143E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
+      <c:spPr>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43137"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1203,7 +1308,7 @@
           <c:x val="9.7778918521980646E-2"/>
           <c:y val="6.0609013202718422E-2"/>
           <c:w val="0.89766364792491049"/>
-          <c:h val="0.80227087194724289"/>
+          <c:h val="0.80227087194724278"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1280,11 +1385,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="158049792"/>
-        <c:axId val="158051328"/>
+        <c:axId val="73157632"/>
+        <c:axId val="73175808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158049792"/>
+        <c:axId val="73157632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,17 +1397,17 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158051328"/>
+        <c:crossAx val="73175808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158051328"/>
+        <c:axId val="73175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.65000000000000058"/>
+          <c:max val="0.6500000000000008"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -1310,7 +1415,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158049792"/>
+        <c:crossAx val="73157632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1321,10 +1426,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1006293932145267"/>
-          <c:y val="0.11739686870157641"/>
-          <c:w val="0.18165511584142971"/>
-          <c:h val="8.3806735762073065E-2"/>
+          <c:x val="0.10062939321452669"/>
+          <c:y val="0.11739686870157642"/>
+          <c:w val="0.18165511584142974"/>
+          <c:h val="8.3806735762073079E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1332,7 +1437,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1349,9 +1454,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12332948587342549"/>
-          <c:y val="5.1431602046146295E-2"/>
+          <c:y val="5.1431602046146316E-2"/>
           <c:w val="0.85998815818721031"/>
-          <c:h val="0.89713679590770701"/>
+          <c:h val="0.89713679590770679"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1571,25 +1676,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="158289920"/>
-        <c:axId val="158291456"/>
+        <c:axId val="73270400"/>
+        <c:axId val="73271936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158289920"/>
+        <c:axId val="73270400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158291456"/>
-        <c:crossesAt val="1.0000000000000026E-15"/>
+        <c:crossAx val="73271936"/>
+        <c:crossesAt val="1.0000000000000034E-15"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158291456"/>
+        <c:axId val="73271936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1598,7 +1703,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158289920"/>
+        <c:crossAx val="73270400"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1611,7 +1716,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.6030376501017527"/>
           <c:y val="8.7329986314281294E-2"/>
-          <c:w val="0.38030775162267605"/>
+          <c:w val="0.38030775162267616"/>
           <c:h val="9.3416702412946834E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1620,7 +1725,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1636,9 +1741,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6462841168847782E-2"/>
+          <c:x val="8.6462841168847795E-2"/>
           <c:y val="3.4048859407374246E-2"/>
-          <c:w val="0.91211054551924542"/>
+          <c:w val="0.91211054551924531"/>
           <c:h val="0.82035519436051063"/>
         </c:manualLayout>
       </c:layout>
@@ -1711,49 +1816,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41799999999999998</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43099999999999999</c:v>
+                  <c:v>6.6199999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.439</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51600000000000001</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68500000000000005</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83499999999999996</c:v>
+                  <c:v>0.26900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86799999999999999</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0509999999999999</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1839999999999999</c:v>
+                  <c:v>0.51100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.35</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.571</c:v>
+                  <c:v>0.752</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.375</c:v>
+                  <c:v>1.2230000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.33</c:v>
+                  <c:v>1.8740000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,74 +1935,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8000000000000004E-2</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14899999999999999</c:v>
+                  <c:v>0.151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.128</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26300000000000001</c:v>
+                  <c:v>0.41299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.376</c:v>
+                  <c:v>0.85299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.95899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52100000000000002</c:v>
+                  <c:v>1.2609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.68100000000000005</c:v>
+                  <c:v>1.4850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.877</c:v>
+                  <c:v>1.9790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0580000000000001</c:v>
+                  <c:v>2.2010000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6439999999999999</c:v>
+                  <c:v>2.7959999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4870000000000001</c:v>
+                  <c:v>3.8479999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="158320128"/>
-        <c:axId val="158321664"/>
+        <c:axId val="73292416"/>
+        <c:axId val="73298304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158320128"/>
+        <c:axId val="73292416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158321664"/>
+        <c:crossAx val="73298304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158321664"/>
+        <c:axId val="73298304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +2010,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158320128"/>
+        <c:crossAx val="73292416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,10 +2021,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13134404567097702"/>
-          <c:y val="5.5563640095817088E-2"/>
-          <c:w val="0.31767970731484396"/>
-          <c:h val="7.4877074320135795E-2"/>
+          <c:x val="0.13134404567097704"/>
+          <c:y val="5.5563640095817095E-2"/>
+          <c:w val="0.31767970731484413"/>
+          <c:h val="7.4877074320135822E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1927,7 +2032,1309 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12693065800592176"/>
+          <c:y val="1.2018746900406394E-2"/>
+          <c:w val="0.83861784500868086"/>
+          <c:h val="0.91416370444508477"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Jacobie</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$55:$T$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.162999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.787999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Jacobie New</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$55:$U$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.426000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.822000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.684</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>288.91699999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>701.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Seidel</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$55:$V$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.989000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Seidel New</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$55:$W$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.838999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>341.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Jacobie</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$55:$T$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.162999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.787999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Jacobie New</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$55:$U$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.426000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.822000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.684</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>288.91699999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>701.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Seidel</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$55:$V$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.989000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Seidel New</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$55:$W$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.838999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>341.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="72957952"/>
+        <c:axId val="72959488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72957952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72959488"/>
+        <c:crossesAt val="5.0000000000000034E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72959488"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72957952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9664104753771728E-2"/>
+          <c:y val="0.79706381061052756"/>
+          <c:w val="0.85835468260745829"/>
+          <c:h val="0.17593626723792763"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12829624699403083"/>
+          <c:y val="4.7193502545193396E-2"/>
+          <c:w val="0.75730601529201491"/>
+          <c:h val="0.8722651690433959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Jacobie</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$55:$Z$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Jacobie New</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$55:$AA$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Seidel</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$55:$AB$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Seidel New</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$55:$X$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$55:$AC$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="140117888"/>
+        <c:axId val="140147328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140117888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140147328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140147328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140117888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1937,15 +3344,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>375674</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23664</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>157960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>329979</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>112265</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>159735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1967,16 +3374,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>398052</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>119099</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>293790</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>54081</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1208190</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>120756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2080,6 +3487,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1309408</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>160243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>223558</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>131669</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>441901</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>64311</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>125702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2373,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Z85"/>
+  <dimension ref="A2:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H87" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView tabSelected="1" topLeftCell="D65" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2384,11 +3851,11 @@
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
@@ -2398,13 +3865,14 @@
     <col min="17" max="17" width="19.42578125" customWidth="1"/>
     <col min="18" max="18" width="21.5703125" customWidth="1"/>
     <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +3943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -2543,7 +4011,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2616,8 +4084,14 @@
       <c r="Z5" t="s">
         <v>29</v>
       </c>
+      <c r="AA5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2693,8 +4167,17 @@
       <c r="Z6">
         <v>87</v>
       </c>
+      <c r="AA6">
+        <v>94</v>
+      </c>
+      <c r="AB6">
+        <v>50</v>
+      </c>
+      <c r="AC6">
+        <v>522</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2770,8 +4253,17 @@
       <c r="Z7">
         <v>147</v>
       </c>
+      <c r="AA7">
+        <v>135</v>
+      </c>
+      <c r="AB7">
+        <v>70</v>
+      </c>
+      <c r="AC7">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2842,13 +4334,22 @@
         <v>1624</v>
       </c>
       <c r="Y8">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="Z8">
-        <v>227</v>
+        <v>207</v>
+      </c>
+      <c r="AA8">
+        <v>207</v>
+      </c>
+      <c r="AB8">
+        <v>116</v>
+      </c>
+      <c r="AC8">
+        <v>1624</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2919,13 +4420,22 @@
         <v>3272</v>
       </c>
       <c r="Y9">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="Z9">
-        <v>293</v>
+        <v>270</v>
+      </c>
+      <c r="AA9">
+        <v>270</v>
+      </c>
+      <c r="AB9">
+        <v>152</v>
+      </c>
+      <c r="AC9">
+        <v>3272</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2996,13 +4506,22 @@
         <v>5496</v>
       </c>
       <c r="Y10">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Z10">
-        <v>396</v>
+        <v>375</v>
+      </c>
+      <c r="AA10">
+        <v>302</v>
+      </c>
+      <c r="AB10">
+        <v>167</v>
+      </c>
+      <c r="AC10">
+        <v>3450</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3073,13 +4592,22 @@
         <v>8296</v>
       </c>
       <c r="Y11">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="Z11">
         <v>492</v>
       </c>
+      <c r="AA11">
+        <v>317</v>
+      </c>
+      <c r="AB11">
+        <v>195</v>
+      </c>
+      <c r="AC11">
+        <v>3744</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3155,8 +4683,17 @@
       <c r="Z12">
         <v>555</v>
       </c>
+      <c r="AA12">
+        <v>344</v>
+      </c>
+      <c r="AB12">
+        <v>204</v>
+      </c>
+      <c r="AC12">
+        <v>4582</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3223,8 +4760,17 @@
       <c r="V13">
         <v>1052</v>
       </c>
+      <c r="AA13">
+        <v>355</v>
+      </c>
+      <c r="AB13">
+        <v>201</v>
+      </c>
+      <c r="AC13">
+        <v>5074</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" thickTop="1">
+    <row r="14" spans="1:29" ht="15.75" thickTop="1">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3282,8 +4828,71 @@
       <c r="S14">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="AA14">
+        <v>365</v>
+      </c>
+      <c r="AB14">
+        <v>222</v>
+      </c>
+      <c r="AC14">
+        <v>5496</v>
+      </c>
     </row>
-    <row r="32" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:29">
+      <c r="AA15">
+        <v>451</v>
+      </c>
+      <c r="AB15">
+        <v>247</v>
+      </c>
+      <c r="AC15">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="AA16">
+        <v>463</v>
+      </c>
+      <c r="AB16">
+        <v>251</v>
+      </c>
+      <c r="AC16">
+        <v>8296</v>
+      </c>
+    </row>
+    <row r="17" spans="13:29">
+      <c r="AA17">
+        <v>532</v>
+      </c>
+      <c r="AB17">
+        <v>294</v>
+      </c>
+      <c r="AC17">
+        <v>11672</v>
+      </c>
+    </row>
+    <row r="25" spans="13:29">
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="13:29">
+      <c r="M26" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="13:29">
+      <c r="P27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="13:29" ht="15.75" thickBot="1"/>
     <row r="33" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
       <c r="J33" s="2" t="s">
         <v>9</v>
@@ -4170,12 +5779,12 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickTop="1"/>
-    <row r="49" spans="5:22">
+    <row r="49" spans="5:29">
       <c r="E49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="5:22">
+    <row r="50" spans="5:29">
       <c r="E50">
         <v>10</v>
       </c>
@@ -4186,15 +5795,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="5:22">
+    <row r="51" spans="5:29">
       <c r="E51">
         <v>100</v>
       </c>
       <c r="F51">
         <v>0.56000000000000005</v>
       </c>
+      <c r="U51">
+        <v>232</v>
+      </c>
+      <c r="W51">
+        <v>8296</v>
+      </c>
     </row>
-    <row r="52" spans="5:22">
+    <row r="52" spans="5:29">
       <c r="E52">
         <v>1000</v>
       </c>
@@ -4202,7 +5817,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="53" spans="5:22">
+    <row r="53" spans="5:29" ht="15.75" thickBot="1">
       <c r="E53">
         <v>10000</v>
       </c>
@@ -4210,31 +5825,480 @@
         <v>0.59570000000000001</v>
       </c>
     </row>
-    <row r="54" spans="5:22">
+    <row r="54" spans="5:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="E54">
         <v>100000</v>
       </c>
       <c r="F54">
         <v>0.60006000000000004</v>
       </c>
+      <c r="R54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA54" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC54" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="55" spans="5:22">
+    <row r="55" spans="5:29" ht="15.75" thickTop="1">
       <c r="E55">
         <v>1000000</v>
       </c>
       <c r="F55">
         <v>0.59981600000000002</v>
       </c>
+      <c r="R55">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S55">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T55">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="U55">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="V55">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="W55">
+        <v>0.13</v>
+      </c>
+      <c r="X55">
+        <v>522</v>
+      </c>
+      <c r="Z55">
+        <v>93</v>
+      </c>
+      <c r="AA55">
+        <v>94</v>
+      </c>
+      <c r="AB55">
+        <v>51</v>
+      </c>
+      <c r="AC55">
+        <v>50</v>
+      </c>
     </row>
-    <row r="56" spans="5:22">
+    <row r="56" spans="5:29">
       <c r="E56">
         <v>10000000</v>
       </c>
       <c r="F56">
         <v>0.59993269999999999</v>
       </c>
+      <c r="R56">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="S56">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="T56">
+        <v>0.214</v>
+      </c>
+      <c r="U56">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="V56">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="W56">
+        <v>0.371</v>
+      </c>
+      <c r="X56">
+        <v>1014</v>
+      </c>
+      <c r="Z56">
+        <v>128</v>
+      </c>
+      <c r="AA56">
+        <v>135</v>
+      </c>
+      <c r="AB56">
+        <v>68</v>
+      </c>
+      <c r="AC56">
+        <v>70</v>
+      </c>
     </row>
-    <row r="68" spans="5:13">
+    <row r="57" spans="5:29">
+      <c r="R57">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="S57">
+        <v>7.8E-2</v>
+      </c>
+      <c r="T57">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="U57">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="V57">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="W57">
+        <v>1.214</v>
+      </c>
+      <c r="X57">
+        <v>1624</v>
+      </c>
+      <c r="Z57">
+        <v>221</v>
+      </c>
+      <c r="AA57">
+        <v>207</v>
+      </c>
+      <c r="AB57">
+        <v>128</v>
+      </c>
+      <c r="AC57">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="5:29">
+      <c r="R58">
+        <v>10.374000000000001</v>
+      </c>
+      <c r="S58">
+        <v>0.374</v>
+      </c>
+      <c r="T58">
+        <v>3.012</v>
+      </c>
+      <c r="U58">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="V58">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="W58">
+        <v>6.3440000000000003</v>
+      </c>
+      <c r="X58">
+        <v>3272</v>
+      </c>
+      <c r="Z58">
+        <v>277</v>
+      </c>
+      <c r="AA58">
+        <v>270</v>
+      </c>
+      <c r="AB58">
+        <v>157</v>
+      </c>
+      <c r="AC58">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="5:29">
+      <c r="R59">
+        <v>15.214</v>
+      </c>
+      <c r="S59">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="T59">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="U59">
+        <v>20.241</v>
+      </c>
+      <c r="V59">
+        <v>2.399</v>
+      </c>
+      <c r="W59">
+        <v>8.0239999999999991</v>
+      </c>
+      <c r="X59">
+        <v>3450</v>
+      </c>
+      <c r="Z59">
+        <v>325</v>
+      </c>
+      <c r="AA59">
+        <v>302</v>
+      </c>
+      <c r="AB59">
+        <v>186</v>
+      </c>
+      <c r="AC59">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="5:29">
+      <c r="R60">
+        <v>21.114999999999998</v>
+      </c>
+      <c r="S60">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="T60">
+        <v>7.2309999999999999</v>
+      </c>
+      <c r="U60">
+        <v>37.426000000000002</v>
+      </c>
+      <c r="V60">
+        <v>3.9620000000000002</v>
+      </c>
+      <c r="W60">
+        <v>14.202</v>
+      </c>
+      <c r="X60">
+        <v>3744</v>
+      </c>
+      <c r="Z60">
+        <v>346</v>
+      </c>
+      <c r="AA60">
+        <v>317</v>
+      </c>
+      <c r="AB60">
+        <v>203</v>
+      </c>
+      <c r="AC60">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="5:29">
+      <c r="R61">
+        <v>28.363</v>
+      </c>
+      <c r="S61">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="T61">
+        <v>8.3529999999999998</v>
+      </c>
+      <c r="U61">
+        <v>49.622</v>
+      </c>
+      <c r="V61">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="W61">
+        <v>19.62</v>
+      </c>
+      <c r="X61">
+        <v>4582</v>
+      </c>
+      <c r="Z61">
+        <v>353</v>
+      </c>
+      <c r="AA61">
+        <v>344</v>
+      </c>
+      <c r="AB61">
+        <v>221</v>
+      </c>
+      <c r="AC61">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="5:29">
+      <c r="R62">
+        <v>40.881999999999998</v>
+      </c>
+      <c r="S62">
+        <v>2.028</v>
+      </c>
+      <c r="T62">
+        <v>9.5380000000000003</v>
+      </c>
+      <c r="U62">
+        <v>64.822000000000003</v>
+      </c>
+      <c r="V62">
+        <v>5.3319999999999999</v>
+      </c>
+      <c r="W62">
+        <v>21.01</v>
+      </c>
+      <c r="X62">
+        <v>5074</v>
+      </c>
+      <c r="Z62">
+        <v>385</v>
+      </c>
+      <c r="AA62">
+        <v>355</v>
+      </c>
+      <c r="AB62">
+        <v>222</v>
+      </c>
+      <c r="AC62">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="5:29">
+      <c r="R63">
+        <v>50.832999999999998</v>
+      </c>
+      <c r="S63">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="T63">
+        <v>11.449</v>
+      </c>
+      <c r="U63">
+        <v>77.484999999999999</v>
+      </c>
+      <c r="V63">
+        <v>6.8849999999999998</v>
+      </c>
+      <c r="W63">
+        <v>34.838999999999999</v>
+      </c>
+      <c r="X63">
+        <v>5496</v>
+      </c>
+      <c r="Z63">
+        <v>380</v>
+      </c>
+      <c r="AA63">
+        <v>365</v>
+      </c>
+      <c r="AB63">
+        <v>234</v>
+      </c>
+      <c r="AC63">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="5:29">
+      <c r="R64">
+        <v>63.777000000000001</v>
+      </c>
+      <c r="S64">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="T64">
+        <v>17.355</v>
+      </c>
+      <c r="U64">
+        <v>123.684</v>
+      </c>
+      <c r="V64">
+        <v>10.989000000000001</v>
+      </c>
+      <c r="W64">
+        <v>54.213000000000001</v>
+      </c>
+      <c r="X64">
+        <v>5874</v>
+      </c>
+      <c r="Z64">
+        <v>465</v>
+      </c>
+      <c r="AA64">
+        <v>451</v>
+      </c>
+      <c r="AB64">
+        <v>263</v>
+      </c>
+      <c r="AC64">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="5:29">
+      <c r="R65">
+        <v>173.375</v>
+      </c>
+      <c r="S65">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T65">
+        <v>36.162999999999997</v>
+      </c>
+      <c r="U65">
+        <v>288.91699999999997</v>
+      </c>
+      <c r="V65">
+        <v>21.8</v>
+      </c>
+      <c r="W65">
+        <v>114.8</v>
+      </c>
+      <c r="X65">
+        <v>8296</v>
+      </c>
+      <c r="Z65">
+        <v>480</v>
+      </c>
+      <c r="AA65">
+        <v>463</v>
+      </c>
+      <c r="AB65">
+        <v>271</v>
+      </c>
+      <c r="AC65">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="5:29">
+      <c r="R66">
+        <v>485.84500000000003</v>
+      </c>
+      <c r="S66">
+        <v>30.84</v>
+      </c>
+      <c r="T66">
+        <v>92.787999999999997</v>
+      </c>
+      <c r="U66">
+        <v>701.46</v>
+      </c>
+      <c r="V66">
+        <v>51.06</v>
+      </c>
+      <c r="W66">
+        <v>341.52</v>
+      </c>
+      <c r="X66">
+        <v>11672</v>
+      </c>
+      <c r="Z66">
+        <v>563</v>
+      </c>
+      <c r="AA66">
+        <v>532</v>
+      </c>
+      <c r="AB66">
+        <v>315</v>
+      </c>
+      <c r="AC66">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="5:29">
       <c r="F68" t="s">
         <v>16</v>
       </c>
@@ -4242,7 +6306,7 @@
         <v>0.72755923181752302</v>
       </c>
     </row>
-    <row r="70" spans="5:13">
+    <row r="70" spans="5:29">
       <c r="G70" t="s">
         <v>43</v>
       </c>
@@ -4259,388 +6323,392 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="5:13">
-      <c r="E71">
+    <row r="71" spans="5:29">
+      <c r="E71" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="13">
         <v>5</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="13">
         <v>0.47507144620841102</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="13">
         <v>0.451150739216582</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="13">
         <f>SUM(E71-H71)</f>
         <v>0.252487785609112</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="13">
         <f>SUM(F71-I71)</f>
         <v>0.27640849260094102</v>
       </c>
-      <c r="L71">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="M71">
-        <v>7.0000000000000007E-2</v>
+      <c r="L71" s="13">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M71" s="13">
+        <v>4.7E-2</v>
       </c>
     </row>
-    <row r="72" spans="5:13">
-      <c r="E72">
+    <row r="72" spans="5:29">
+      <c r="E72" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="13">
         <v>10</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="13">
         <v>0.69316378412859403</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="13">
         <v>0.65341376150087904</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="13">
         <f t="shared" ref="J72:J78" si="0">SUM(E72-H72)</f>
         <v>3.4395447688928993E-2</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="13">
         <f t="shared" ref="K72:K81" si="1">SUM(F72-I72)</f>
         <v>7.414547031664398E-2</v>
       </c>
-      <c r="L72">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="M72">
-        <v>9.8000000000000004E-2</v>
+      <c r="L72" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M72" s="13">
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="5:13">
-      <c r="E73">
+    <row r="73" spans="5:29">
+      <c r="E73" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="13">
         <v>15</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="13">
         <v>0.72049472968085304</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="13">
         <v>0.699026380429837</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="13">
         <f t="shared" si="0"/>
         <v>7.0645021366699812E-3</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="13">
         <f t="shared" si="1"/>
         <v>2.853285138768602E-2</v>
       </c>
-      <c r="L73">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="M73">
-        <v>0.14899999999999999</v>
+      <c r="L73" s="13">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="M73" s="13">
+        <v>0.151</v>
       </c>
     </row>
-    <row r="74" spans="5:13">
-      <c r="E74">
+    <row r="74" spans="5:29">
+      <c r="E74" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="13">
         <v>20</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="13">
         <v>0.72586389529626505</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="13">
         <v>0.71768953441009298</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="13">
         <f t="shared" si="0"/>
         <v>1.695336521257973E-3</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="13">
         <f t="shared" si="1"/>
         <v>9.8696974074300448E-3</v>
       </c>
-      <c r="L74">
-        <v>0.439</v>
-      </c>
-      <c r="M74">
-        <v>0.128</v>
+      <c r="L74" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="M74" s="13">
+        <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="75" spans="5:13">
-      <c r="E75">
+    <row r="75" spans="5:29">
+      <c r="E75" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="13">
         <v>30</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="13">
         <v>0.72745575422068198</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="13">
         <v>0.72565728293203802</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="13">
         <f t="shared" si="0"/>
         <v>1.0347759684103952E-4</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="13">
         <f t="shared" si="1"/>
         <v>1.9019488854850053E-3</v>
       </c>
-      <c r="L75">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="M75">
-        <v>0.17299999999999999</v>
+      <c r="L75" s="13">
+        <v>0.108</v>
+      </c>
+      <c r="M75" s="13">
+        <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="76" spans="5:13">
-      <c r="E76">
+    <row r="76" spans="5:29">
+      <c r="E76" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="13">
         <v>50</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="13">
         <v>0.72755884222901901</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="13">
         <v>0.727477278838911</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="13">
         <f t="shared" si="0"/>
         <v>3.8958850401282774E-7</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="13">
         <f t="shared" si="1"/>
         <v>8.1952978612020999E-5</v>
       </c>
-      <c r="L76">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M76">
-        <v>0.26300000000000001</v>
+      <c r="L76" s="13">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M76" s="13">
+        <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="77" spans="5:13">
-      <c r="E77">
+    <row r="77" spans="5:29">
+      <c r="E77" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="13">
         <v>75</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="13">
         <v>0.72755923145414703</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="13">
         <v>0.72755732185866895</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="13">
         <f t="shared" si="0"/>
         <v>3.6337599595981374E-10</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="13">
         <f t="shared" si="1"/>
         <v>1.9099588540738566E-6</v>
       </c>
-      <c r="L77">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="M77">
-        <v>0.28999999999999998</v>
+      <c r="L77" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M77" s="13">
+        <v>0.624</v>
       </c>
     </row>
-    <row r="78" spans="5:13">
-      <c r="E78">
+    <row r="78" spans="5:29">
+      <c r="E78" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="13">
         <v>100</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="13">
         <v>0.72755923181718396</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="13">
         <v>0.72755919926897294</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="13">
         <f t="shared" si="0"/>
         <v>3.3906211172052281E-13</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="13">
         <f t="shared" si="1"/>
         <v>3.2548550077393656E-8</v>
       </c>
-      <c r="L78">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="M78">
-        <v>0.376</v>
+      <c r="L78" s="13">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="M78" s="13">
+        <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="79" spans="5:13">
-      <c r="E79">
+    <row r="79" spans="5:29">
+      <c r="E79" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="13">
         <v>125</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="13">
         <v>0.72755923105881004</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="13">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="13">
         <f t="shared" si="1"/>
         <v>7.5871298133023402E-10</v>
       </c>
-      <c r="L79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="M79">
-        <v>0.45500000000000002</v>
+      <c r="L79" s="13">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M79" s="13">
+        <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="80" spans="5:13">
-      <c r="E80">
+    <row r="80" spans="5:29">
+      <c r="E80" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="13">
         <v>150</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="13">
         <v>0.72755923180459403</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="13">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="13">
         <f t="shared" si="1"/>
         <v>1.2928991210969798E-11</v>
       </c>
-      <c r="L80">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="M80">
-        <v>0.52100000000000002</v>
+      <c r="L80" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="M80" s="13">
+        <v>1.2609999999999999</v>
       </c>
     </row>
     <row r="81" spans="5:13">
-      <c r="E81">
+      <c r="E81" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="13">
         <v>200</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="13">
         <v>0.72755923181751803</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="13">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="13">
         <f t="shared" si="1"/>
         <v>4.9960036108132044E-15</v>
       </c>
-      <c r="L81">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="M81">
-        <v>0.68100000000000005</v>
+      <c r="L81" s="13">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="M81" s="13">
+        <v>1.4850000000000001</v>
       </c>
     </row>
     <row r="82" spans="5:13">
-      <c r="E82">
+      <c r="E82" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="13">
         <v>250</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="13">
         <v>0.72755923181752302</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="13">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="13">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="L82" s="10">
-        <v>1.35</v>
-      </c>
-      <c r="M82">
-        <v>0.877</v>
+      <c r="L82" s="14">
+        <v>0.626</v>
+      </c>
+      <c r="M82" s="13">
+        <v>1.9790000000000001</v>
       </c>
     </row>
     <row r="83" spans="5:13">
-      <c r="G83">
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13">
         <v>300</v>
       </c>
-      <c r="J83">
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="13">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="L83">
-        <v>1.571</v>
-      </c>
-      <c r="M83">
-        <v>1.0580000000000001</v>
+      <c r="L83" s="13">
+        <v>0.752</v>
+      </c>
+      <c r="M83" s="13">
+        <v>2.2010000000000001</v>
       </c>
     </row>
     <row r="84" spans="5:13">
@@ -4648,10 +6716,10 @@
         <v>500</v>
       </c>
       <c r="L84">
-        <v>2.375</v>
+        <v>1.2230000000000001</v>
       </c>
       <c r="M84">
-        <v>1.6439999999999999</v>
+        <v>2.7959999999999998</v>
       </c>
     </row>
     <row r="85" spans="5:13">
@@ -4659,10 +6727,10 @@
         <v>750</v>
       </c>
       <c r="L85" s="10">
-        <v>3.33</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="M85">
-        <v>2.4870000000000001</v>
+        <v>3.8479999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/zad3/Sprawozdanie/data.xlsx
+++ b/zad3/Sprawozdanie/data.xlsx
@@ -371,7 +371,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.8499007450103509E-2"/>
+          <c:x val="5.8499007450103516E-2"/>
           <c:y val="4.3989206110608692E-2"/>
           <c:w val="0.89401146938914"/>
           <c:h val="0.84712867691676064"/>
@@ -514,11 +514,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73217536"/>
-        <c:axId val="73219072"/>
+        <c:axId val="165003264"/>
+        <c:axId val="165004800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73217536"/>
+        <c:axId val="165003264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,14 +526,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73219072"/>
+        <c:crossAx val="165004800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73219072"/>
+        <c:axId val="165004800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +547,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73217536"/>
+        <c:crossAx val="165003264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -560,8 +560,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.9473355294516421E-2"/>
           <c:y val="4.4804825903039511E-2"/>
-          <c:w val="0.23333744513547669"/>
-          <c:h val="7.0913407723763464E-2"/>
+          <c:w val="0.23333744513547675"/>
+          <c:h val="7.0913407723763477E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -569,7 +569,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1192,11 +1192,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73267456"/>
-        <c:axId val="73146368"/>
+        <c:axId val="166971264"/>
+        <c:axId val="166972800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73267456"/>
+        <c:axId val="166971264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,14 +1214,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73146368"/>
+        <c:crossAx val="166972800"/>
         <c:crossesAt val="5.0000000000000034E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73146368"/>
+        <c:axId val="166972800"/>
         <c:scaling>
           <c:logBase val="5"/>
           <c:orientation val="minMax"/>
@@ -1241,7 +1241,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73267456"/>
+        <c:crossAx val="166971264"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,7 +1279,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1308,7 +1308,7 @@
           <c:x val="9.7778918521980646E-2"/>
           <c:y val="6.0609013202718422E-2"/>
           <c:w val="0.89766364792491049"/>
-          <c:h val="0.80227087194724278"/>
+          <c:h val="0.80227087194724267"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1385,11 +1385,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73157632"/>
-        <c:axId val="73175808"/>
+        <c:axId val="166860288"/>
+        <c:axId val="166861824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73157632"/>
+        <c:axId val="166860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,17 +1397,17 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73175808"/>
+        <c:crossAx val="166861824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73175808"/>
+        <c:axId val="166861824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.6500000000000008"/>
+          <c:max val="0.65000000000000091"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -1415,7 +1415,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73157632"/>
+        <c:crossAx val="166860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,10 +1426,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10062939321452669"/>
+          <c:x val="0.10062939321452667"/>
           <c:y val="0.11739686870157642"/>
-          <c:w val="0.18165511584142974"/>
-          <c:h val="8.3806735762073079E-2"/>
+          <c:w val="0.18165511584142977"/>
+          <c:h val="8.380673576207312E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1437,7 +1437,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1454,9 +1454,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12332948587342549"/>
-          <c:y val="5.1431602046146316E-2"/>
+          <c:y val="5.1431602046146337E-2"/>
           <c:w val="0.85998815818721031"/>
-          <c:h val="0.89713679590770679"/>
+          <c:h val="0.89713679590770656"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1676,25 +1676,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73270400"/>
-        <c:axId val="73271936"/>
+        <c:axId val="166916096"/>
+        <c:axId val="166917632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73270400"/>
+        <c:axId val="166916096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73271936"/>
-        <c:crossesAt val="1.0000000000000034E-15"/>
+        <c:crossAx val="166917632"/>
+        <c:crossesAt val="1.0000000000000044E-15"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73271936"/>
+        <c:axId val="166917632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1703,7 +1703,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73270400"/>
+        <c:crossAx val="166916096"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1716,7 +1716,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.6030376501017527"/>
           <c:y val="8.7329986314281294E-2"/>
-          <c:w val="0.38030775162267616"/>
+          <c:w val="0.38030775162267627"/>
           <c:h val="9.3416702412946834E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1725,7 +1725,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1743,7 +1743,7 @@
           <c:yMode val="edge"/>
           <c:x val="8.6462841168847795E-2"/>
           <c:y val="3.4048859407374246E-2"/>
-          <c:w val="0.91211054551924531"/>
+          <c:w val="0.9121105455192452"/>
           <c:h val="0.82035519436051063"/>
         </c:manualLayout>
       </c:layout>
@@ -1984,25 +1984,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73292416"/>
-        <c:axId val="73298304"/>
+        <c:axId val="167007744"/>
+        <c:axId val="167009280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73292416"/>
+        <c:axId val="167007744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73298304"/>
+        <c:crossAx val="167009280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73298304"/>
+        <c:axId val="167009280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2010,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73292416"/>
+        <c:crossAx val="167007744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2022,9 +2022,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13134404567097704"/>
-          <c:y val="5.5563640095817095E-2"/>
-          <c:w val="0.31767970731484413"/>
-          <c:h val="7.4877074320135822E-2"/>
+          <c:y val="5.5563640095817109E-2"/>
+          <c:w val="0.31767970731484435"/>
+          <c:h val="7.4877074320135836E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2032,7 +2032,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2048,402 +2048,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12693065800592176"/>
-          <c:y val="1.2018746900406394E-2"/>
-          <c:w val="0.83861784500868086"/>
+          <c:x val="7.4851207682009896E-2"/>
+          <c:y val="1.201874690040639E-2"/>
+          <c:w val="0.89069729647859441"/>
           <c:h val="0.91416370444508477"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Jacobie</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$X$55:$X$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3450</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3744</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4582</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5874</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$55:$T$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>7.6999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9889999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.3529999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.5380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.449</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.355</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.162999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>92.787999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Jacobie New</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$X$55:$X$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3450</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3744</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4582</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5874</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$U$55:$U$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.20599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.241</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37.426000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.622</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.822000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>77.484999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>123.684</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>288.91699999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>701.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Seidel</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$X$55:$X$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3450</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3744</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4582</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5874</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$V$55:$V$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9620000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9610000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.8849999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.989000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Seidel New</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$X$55:$X$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3450</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3744</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4582</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5874</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$W$55:$W$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.371</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.214</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3440000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0239999999999991</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.838999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54.213000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>114.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>341.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2833,25 +2445,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72957952"/>
-        <c:axId val="72959488"/>
+        <c:axId val="167260160"/>
+        <c:axId val="167261696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72957952"/>
+        <c:axId val="167260160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72959488"/>
+        <c:crossAx val="167261696"/>
         <c:crossesAt val="5.0000000000000034E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72959488"/>
+        <c:axId val="167261696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2860,7 +2472,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72957952"/>
+        <c:crossAx val="167260160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2871,18 +2483,28 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9664104753771728E-2"/>
-          <c:y val="0.79706381061052756"/>
-          <c:w val="0.85835468260745829"/>
-          <c:h val="0.17593626723792763"/>
+          <c:x val="5.9664104753771735E-2"/>
+          <c:y val="0.79706381061052778"/>
+          <c:w val="0.8583546826074584"/>
+          <c:h val="0.17593626723792768"/>
         </c:manualLayout>
       </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2898,8 +2520,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12829624699403083"/>
-          <c:y val="4.7193502545193396E-2"/>
+          <c:x val="0.12829624699403086"/>
+          <c:y val="4.719350254519341E-2"/>
           <c:w val="0.75730601529201491"/>
           <c:h val="0.8722651690433959"/>
         </c:manualLayout>
@@ -3295,25 +2917,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140117888"/>
-        <c:axId val="140147328"/>
+        <c:axId val="167296000"/>
+        <c:axId val="167305984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140117888"/>
+        <c:axId val="167296000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140147328"/>
+        <c:crossAx val="167305984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140147328"/>
+        <c:axId val="167305984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +2943,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140117888"/>
+        <c:crossAx val="167296000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3334,7 +2956,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3494,16 +3116,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>1309408</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>160243</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304953</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>177561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>223558</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>131669</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>500648</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>148987</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3842,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="Q58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y73" sqref="Y73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
